--- a/TAP_POM_Framework/data/TC004.xlsx
+++ b/TAP_POM_Framework/data/TC004.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>FirstName</t>
   </si>
@@ -51,12 +51,6 @@
     <t>https://www.thales.com</t>
   </si>
   <si>
-    <t>Dev TestA</t>
-  </si>
-  <si>
-    <t>abi.s@lnttsthales.com</t>
-  </si>
-  <si>
     <t>Abirami@1</t>
   </si>
   <si>
@@ -64,13 +58,76 @@
   </si>
   <si>
     <t>https://www.linkedin.com/same/login</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>thalesBillingId</t>
+  </si>
+  <si>
+    <t>businessType</t>
+  </si>
+  <si>
+    <t>TaxpayerId</t>
+  </si>
+  <si>
+    <t>BankName</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>RoutingNumber</t>
+  </si>
+  <si>
+    <t>Samuel Street</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>4332E</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Citi</t>
+  </si>
+  <si>
+    <t>Dev Test12</t>
+  </si>
+  <si>
+    <t>abi.s1@lnttsthales.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +139,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,18 +169,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,9 +478,10 @@
     <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -420,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -437,8 +506,44 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -446,7 +551,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -455,17 +560,56 @@
         <v>8664522165</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2">
+        <v>23465</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2">
+        <v>321321</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2">
+        <v>32132165454</v>
+      </c>
+      <c r="T2">
+        <v>3213213</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/TAP_POM_Framework/data/TC004.xlsx
+++ b/TAP_POM_Framework/data/TC004.xlsx
@@ -57,9 +57,6 @@
     <t>CompanyDeveloper</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/same/login</t>
-  </si>
-  <si>
     <t>address1</t>
   </si>
   <si>
@@ -117,10 +114,13 @@
     <t>Citi</t>
   </si>
   <si>
-    <t>Dev Test12</t>
-  </si>
-  <si>
-    <t>abi.s1@lnttsthales.com</t>
+    <t>Dev Test123</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/same1/login</t>
+  </si>
+  <si>
+    <t>abi.s1@lnttsthales1.com</t>
   </si>
 </sst>
 </file>
@@ -178,9 +178,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,40 +507,40 @@
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -551,52 +551,52 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>8664522165</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2">
         <v>23465</v>
       </c>
       <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
       </c>
       <c r="Q2">
         <v>321321</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S2">
         <v>32132165454</v>
@@ -608,8 +608,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>